--- a/biology/Médecine/1462_en_santé_et_médecine/1462_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1462_en_santé_et_médecine/1462_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1462_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1462_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1462 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1462_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1462_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Février : le duc de Bourgogne Philippe le Bon est atteint d'une grave maladie, « dont le stade aigu dure quatre mois [et au cours de laquelle] huit médecins sont appelés de Bruxelles en son château du Coudenberg[1] ».
-Fondation à Francfort de la pharmacie Hirsch, qui est à l'origine de l'actuel Fresenius Medical Care, laboratoire allemand spécialisé dans les produits et équipements de dialyse et de circulation extracorporelle[2].
-1461-1462 : Rabodus Kremer, apothicaire de Francfort, « se rend [à Venise] pour y acquérir des produits nécessaires à la pharmacie de la ville[3],[4] ».
-Vers 1460-1462 : Jean Esquenart, docteur en médecine et futur évêque de Sisteron, fonde à Arquenay dans le Maine un hôpital Saint-Sulpice destiné à l'accueil des pèlerins[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Février : le duc de Bourgogne Philippe le Bon est atteint d'une grave maladie, « dont le stade aigu dure quatre mois [et au cours de laquelle] huit médecins sont appelés de Bruxelles en son château du Coudenberg ».
+Fondation à Francfort de la pharmacie Hirsch, qui est à l'origine de l'actuel Fresenius Medical Care, laboratoire allemand spécialisé dans les produits et équipements de dialyse et de circulation extracorporelle.
+1461-1462 : Rabodus Kremer, apothicaire de Francfort, « se rend [à Venise] pour y acquérir des produits nécessaires à la pharmacie de la ville, ».
+Vers 1460-1462 : Jean Esquenart, docteur en médecine et futur évêque de Sisteron, fonde à Arquenay dans le Maine un hôpital Saint-Sulpice destiné à l'accueil des pèlerins.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1462_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1462_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>24 juillet : Giovanni Manardo[6] (mort en 1536), médecin, botaniste et humaniste italien, élève de Nicolas Léonicène à Ferrare, Premier médecin du roi de Hongrie Ladislas VI[7], auteur de « Lettres médicales » (Epistolarium medicinalium libri duodeviginti) dont Rabelais éditera le second tome en 1532[8].
-16 septembre : Pietro Pomponazzi (mort en 1525), docteur en médecine, professeur de philosophie à Padoue, auteur d'un Traité de l'immortalité de l'âme condamné par l'Inquisition[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>24 juillet : Giovanni Manardo (mort en 1536), médecin, botaniste et humaniste italien, élève de Nicolas Léonicène à Ferrare, Premier médecin du roi de Hongrie Ladislas VI, auteur de « Lettres médicales » (Epistolarium medicinalium libri duodeviginti) dont Rabelais éditera le second tome en 1532.
+16 septembre : Pietro Pomponazzi (mort en 1525), docteur en médecine, professeur de philosophie à Padoue, auteur d'un Traité de l'immortalité de l'âme condamné par l'Inquisition.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1462_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1462_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nicolas Pistor (né vers 1402), professeur de médecine allemand, père de Simon, médecin également[10].
-Vers 1462[11] ou en 1468 : Michel Savonarole (né en 1384 ou 1385), médecin humaniste italien, professeur à Padoue, médecin de Nicolas d'Este à Ferrare, grand-père de Jérôme Savonarole[12],[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nicolas Pistor (né vers 1402), professeur de médecine allemand, père de Simon, médecin également.
+Vers 1462 ou en 1468 : Michel Savonarole (né en 1384 ou 1385), médecin humaniste italien, professeur à Padoue, médecin de Nicolas d'Este à Ferrare, grand-père de Jérôme Savonarole,.</t>
         </is>
       </c>
     </row>
